--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,562 +43,556 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>disappointing</t>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>inches</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>okay</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>fell</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>bored</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fall</t>
   </si>
   <si>
     <t>un</t>
   </si>
   <si>
-    <t>might</t>
-  </si>
-  <si>
     <t>seem</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>wood</t>
+    <t>air</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>expensive</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>parts</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>away</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>color</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>bigger</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>think</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>5</t>
+    <t>like</t>
   </si>
   <si>
     <t>looks</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>4</t>
   </si>
   <si>
     <t>enough</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
+    <t>set</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>came</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>got</t>
   </si>
   <si>
-    <t>set</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>time</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>grandson</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>enjoys</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>played</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -970,7 +964,7 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1028,13 +1022,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1046,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1070,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1078,13 +1072,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9047619047619048</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1096,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="K4">
-        <v>0.8602150537634409</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="L4">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M4">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1120,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1128,13 +1122,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8636363636363636</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1146,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>142</v>
       </c>
       <c r="K5">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1170,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1178,13 +1172,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8620689655172413</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1202,13 +1196,13 @@
         <v>143</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1220,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1228,13 +1222,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8421052631578947</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1246,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>144</v>
       </c>
       <c r="K7">
-        <v>0.796875</v>
+        <v>0.85</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1270,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1278,13 +1272,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8028169014084507</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1296,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>145</v>
       </c>
       <c r="K8">
-        <v>0.7777777777777778</v>
+        <v>0.796875</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1320,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1328,13 +1322,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.78125</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1346,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>146</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1370,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1378,13 +1372,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7727272727272727</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1396,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K10">
-        <v>0.7083333333333334</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1420,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1428,13 +1422,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.765625</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="D11">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1446,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>148</v>
       </c>
       <c r="K11">
-        <v>0.6415094339622641</v>
+        <v>0.625</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1470,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1478,13 +1472,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7526881720430108</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C12">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1496,19 +1490,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>149</v>
       </c>
       <c r="K12">
-        <v>0.6312769010043041</v>
+        <v>0.6212338593974175</v>
       </c>
       <c r="L12">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M12">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1520,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1528,13 +1522,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7407407407407407</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1546,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>150</v>
       </c>
       <c r="K13">
-        <v>0.6037344398340249</v>
+        <v>0.578838174273859</v>
       </c>
       <c r="L13">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M13">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1570,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1578,13 +1572,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7391304347826086</v>
+        <v>0.722972972972973</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1596,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="K14">
-        <v>0.5942028985507246</v>
+        <v>0.5459016393442623</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>666</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>666</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1620,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1628,13 +1622,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7368421052631579</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1646,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>152</v>
       </c>
       <c r="K15">
-        <v>0.5278688524590164</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L15">
-        <v>644</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <v>644</v>
+        <v>78</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1670,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>576</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1678,13 +1672,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7272727272727273</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1696,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>153</v>
       </c>
       <c r="K16">
-        <v>0.4578313253012048</v>
+        <v>0.4617737003058104</v>
       </c>
       <c r="L16">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="M16">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1720,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>90</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1728,13 +1722,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7087378640776699</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C17">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1746,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>154</v>
       </c>
       <c r="K17">
-        <v>0.4525993883792049</v>
+        <v>0.455026455026455</v>
       </c>
       <c r="L17">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="M17">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1770,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>179</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1778,13 +1772,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7027027027027027</v>
+        <v>0.64</v>
       </c>
       <c r="C18">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1796,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>155</v>
       </c>
       <c r="K18">
-        <v>0.4497354497354497</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L18">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1820,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>104</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1828,13 +1822,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6904761904761905</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1852,13 +1846,13 @@
         <v>156</v>
       </c>
       <c r="K19">
-        <v>0.4339622641509434</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1870,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1878,13 +1872,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6875</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1896,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>157</v>
       </c>
       <c r="K20">
-        <v>0.4042553191489361</v>
+        <v>0.3445378151260504</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1928,13 +1922,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6218487394957983</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C21">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1946,31 +1940,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>158</v>
       </c>
       <c r="K21">
-        <v>0.4</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L21">
         <v>48</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1978,13 +1972,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6144578313253012</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1996,31 +1990,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K22">
-        <v>0.3661971830985916</v>
+        <v>0.336</v>
       </c>
       <c r="L22">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2028,13 +2022,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C23">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2046,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>160</v>
       </c>
       <c r="K23">
-        <v>0.3454545454545455</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2070,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2078,37 +2072,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C24">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>21</v>
-      </c>
-      <c r="D24">
-        <v>21</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>161</v>
       </c>
       <c r="K24">
-        <v>0.3389830508474576</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2120,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2128,13 +2122,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5925925925925926</v>
+        <v>0.5681159420289855</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2146,19 +2140,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K25">
-        <v>0.3359375</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2170,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2178,13 +2172,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2196,19 +2190,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>163</v>
       </c>
       <c r="K26">
-        <v>0.328125</v>
+        <v>0.3046875</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2220,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2231,10 +2225,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2246,19 +2240,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>164</v>
       </c>
       <c r="K27">
-        <v>0.3278688524590164</v>
+        <v>0.296875</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2270,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2278,13 +2272,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5555555555555556</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2296,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>165</v>
       </c>
       <c r="K28">
-        <v>0.3</v>
+        <v>0.2956989247311828</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2320,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2352,25 +2346,25 @@
         <v>166</v>
       </c>
       <c r="K29">
-        <v>0.2918918918918919</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M29">
+        <v>22</v>
+      </c>
+      <c r="N29">
+        <v>0.95</v>
+      </c>
+      <c r="O29">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
         <v>55</v>
-      </c>
-      <c r="N29">
-        <v>0.98</v>
-      </c>
-      <c r="O29">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2378,13 +2372,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5165876777251185</v>
+        <v>0.5433070866141733</v>
       </c>
       <c r="C30">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="D30">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2396,19 +2390,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>167</v>
       </c>
       <c r="K30">
-        <v>0.2834008097165992</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L30">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M30">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N30">
         <v>0.97</v>
@@ -2420,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2428,13 +2422,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.509090909090909</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2446,31 +2440,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>168</v>
       </c>
       <c r="K31">
-        <v>0.2763157894736842</v>
+        <v>0.2434094903339191</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>277</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>861</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2478,13 +2472,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2496,19 +2490,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>169</v>
       </c>
       <c r="K32">
-        <v>0.272</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2520,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2528,13 +2522,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2546,31 +2540,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>170</v>
       </c>
       <c r="K33">
-        <v>0.252863436123348</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L33">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>848</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2578,13 +2572,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4736842105263158</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2596,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>171</v>
       </c>
       <c r="K34">
-        <v>0.246031746031746</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2620,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2628,13 +2622,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4736842105263158</v>
+        <v>0.5</v>
       </c>
       <c r="C35">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2646,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>172</v>
       </c>
       <c r="K35">
-        <v>0.2173913043478261</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2670,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2678,13 +2672,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4693877551020408</v>
+        <v>0.5</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2696,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>173</v>
       </c>
       <c r="K36">
-        <v>0.2068965517241379</v>
+        <v>0.1615598885793872</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2720,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>69</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2728,37 +2722,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.46875</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E37">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>174</v>
       </c>
       <c r="K37">
-        <v>0.2051282051282051</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2770,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2778,13 +2772,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.46875</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2796,31 +2790,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K38">
-        <v>0.1794871794871795</v>
+        <v>0.1433224755700326</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>96</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2828,13 +2822,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4566929133858268</v>
+        <v>0.4765625</v>
       </c>
       <c r="C39">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D39">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2846,31 +2840,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>176</v>
       </c>
       <c r="K39">
-        <v>0.1623376623376623</v>
+        <v>0.1394101876675603</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>129</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2878,13 +2872,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4418604651162791</v>
+        <v>0.4739336492890995</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2896,31 +2890,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K40">
-        <v>0.1536458333333333</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="L40">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="N40">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1300</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2928,13 +2922,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4390243902439024</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2946,31 +2940,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>178</v>
       </c>
       <c r="K41">
-        <v>0.1536312849162011</v>
+        <v>0.1254901960784314</v>
       </c>
       <c r="L41">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>303</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2978,49 +2972,49 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4375</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>179</v>
       </c>
       <c r="K42">
-        <v>0.15</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>136</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3028,7 +3022,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4285714285714285</v>
+        <v>0.45</v>
       </c>
       <c r="C43">
         <v>27</v>
@@ -3046,31 +3040,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>180</v>
       </c>
       <c r="K43">
-        <v>0.1424731182795699</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="L43">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>319</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3078,13 +3072,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4126984126984127</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3096,31 +3090,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>181</v>
       </c>
       <c r="K44">
-        <v>0.09907120743034056</v>
+        <v>0.1033557046979866</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>291</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3128,13 +3122,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4102564102564102</v>
+        <v>0.421875</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3146,31 +3140,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>182</v>
       </c>
       <c r="K45">
-        <v>0.0975609756097561</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
         <v>28</v>
       </c>
-      <c r="M45">
-        <v>31</v>
-      </c>
       <c r="N45">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="O45">
-        <v>0.09999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>259</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3178,13 +3172,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4054054054054054</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3196,31 +3190,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>183</v>
       </c>
       <c r="K46">
-        <v>0.09504685408299866</v>
+        <v>0.08996539792387544</v>
       </c>
       <c r="L46">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="N46">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>676</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3228,13 +3222,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3934426229508197</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3246,31 +3240,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>184</v>
       </c>
       <c r="K47">
-        <v>0.09139784946236559</v>
+        <v>0.08360128617363344</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N47">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="O47">
-        <v>0.26</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>169</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3278,13 +3272,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.375</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3296,31 +3290,31 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>185</v>
       </c>
       <c r="K48">
-        <v>0.08661417322834646</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N48">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="O48">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>232</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3328,49 +3322,49 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3707865168539326</v>
+        <v>0.4</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>186</v>
       </c>
       <c r="K49">
-        <v>0.08629441624365482</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N49">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
       <c r="O49">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>180</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3378,13 +3372,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3703703703703703</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3396,31 +3390,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="K50">
-        <v>0.08088235294117647</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M50">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="N50">
-        <v>0.58</v>
+        <v>0.8</v>
       </c>
       <c r="O50">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>250</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3428,13 +3422,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3666666666666666</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3446,31 +3440,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K51">
-        <v>0.08064516129032258</v>
+        <v>0.06788511749347259</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N51">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="O51">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>285</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3478,13 +3472,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3620689655172414</v>
+        <v>0.375</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3496,31 +3490,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="K52">
-        <v>0.0738255033557047</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N52">
-        <v>0.85</v>
+        <v>0.55</v>
       </c>
       <c r="O52">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3528,13 +3522,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3571428571428572</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3546,31 +3540,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K53">
-        <v>0.0735930735930736</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N53">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0.23</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3578,13 +3572,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3513513513513514</v>
+        <v>0.3712871287128713</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3596,31 +3590,31 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="K54">
-        <v>0.06613756613756613</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N54">
-        <v>0.58</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O54">
-        <v>0.42</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>353</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3628,13 +3622,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3465346534653465</v>
+        <v>0.3620689655172414</v>
       </c>
       <c r="C55">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D55">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3646,31 +3640,31 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K55">
-        <v>0.05702647657841141</v>
+        <v>0.0625</v>
       </c>
       <c r="L55">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N55">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="O55">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>463</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3678,13 +3672,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3432835820895522</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3696,31 +3690,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K56">
-        <v>0.05523255813953488</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M56">
         <v>26</v>
       </c>
       <c r="N56">
-        <v>0.73</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O56">
-        <v>0.27</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>325</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3728,13 +3722,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.336734693877551</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C57">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3746,31 +3740,31 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="K57">
-        <v>0.05386416861826698</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N57">
-        <v>0.79</v>
+        <v>0.46</v>
       </c>
       <c r="O57">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3778,13 +3772,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3333333333333333</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3796,31 +3790,31 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="K58">
-        <v>0.04617604617604618</v>
+        <v>0.03159340659340659</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="N58">
-        <v>0.73</v>
+        <v>0.26</v>
       </c>
       <c r="O58">
-        <v>0.27</v>
+        <v>0.74</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>661</v>
+        <v>705</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3828,13 +3822,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3260869565217391</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3846,31 +3840,31 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="K59">
-        <v>0.04488330341113106</v>
+        <v>0.03134328358208955</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N59">
-        <v>0.76</v>
+        <v>0.49</v>
       </c>
       <c r="O59">
-        <v>0.24</v>
+        <v>0.51</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>532</v>
+        <v>649</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3878,13 +3872,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3225806451612903</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3897,30 +3891,6 @@
       </c>
       <c r="H60">
         <v>42</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K60">
-        <v>0.03355704697986577</v>
-      </c>
-      <c r="L60">
-        <v>15</v>
-      </c>
-      <c r="M60">
-        <v>37</v>
-      </c>
-      <c r="N60">
-        <v>0.41</v>
-      </c>
-      <c r="O60">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>432</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3928,13 +3898,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3214285714285715</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3946,31 +3916,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>38</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K61">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="L61">
-        <v>22</v>
-      </c>
-      <c r="M61">
-        <v>90</v>
-      </c>
-      <c r="N61">
-        <v>0.24</v>
-      </c>
-      <c r="O61">
-        <v>0.76</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>704</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3978,13 +3924,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3188405797101449</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3996,31 +3942,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>47</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K62">
-        <v>0.02560240963855422</v>
-      </c>
-      <c r="L62">
-        <v>17</v>
-      </c>
-      <c r="M62">
-        <v>45</v>
-      </c>
-      <c r="N62">
-        <v>0.38</v>
-      </c>
-      <c r="O62">
-        <v>0.62</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>647</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4028,13 +3950,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3188405797101449</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4046,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4054,13 +3976,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.315</v>
+        <v>0.3</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4072,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4080,13 +4002,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.3142857142857143</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D65">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4098,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4106,13 +4028,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.3076923076923077</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="C66">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D66">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4124,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4132,13 +4054,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2967032967032967</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="C67">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D67">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4150,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4158,13 +4080,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.288659793814433</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C68">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D68">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4176,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>138</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4184,13 +4106,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.288659793814433</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D69">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4202,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>69</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4210,25 +4132,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.288659793814433</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="C70">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4236,13 +4158,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2848101265822785</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C71">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D71">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4254,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>226</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4262,13 +4184,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2785714285714286</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C72">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D72">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4280,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4288,13 +4210,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2680115273775216</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C73">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D73">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E73">
         <v>0.01</v>
@@ -4306,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4314,25 +4236,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2644927536231884</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="C74">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D74">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>203</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4340,25 +4262,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2567567567567567</v>
+        <v>0.2633928571428572</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>55</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4366,13 +4288,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2533333333333334</v>
+        <v>0.26</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D76">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4384,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>56</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4392,13 +4314,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2407407407407407</v>
+        <v>0.2460732984293194</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D77">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4410,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4418,25 +4340,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2354694485842027</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="C78">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="E78">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F78">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>513</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4444,25 +4366,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.2347826086956522</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="C79">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D79">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E79">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4470,25 +4392,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2215189873417721</v>
+        <v>0.2312138728323699</v>
       </c>
       <c r="C80">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D80">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>246</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4496,25 +4418,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2185430463576159</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C81">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D81">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E81">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F81">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>354</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4522,13 +4444,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2146596858638743</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C82">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D82">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4540,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>150</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4548,25 +4470,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.2142857142857143</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C83">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>143</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4574,25 +4496,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.2138728323699422</v>
+        <v>0.2243589743589744</v>
       </c>
       <c r="C84">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D84">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E84">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F84">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4600,13 +4522,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2112676056338028</v>
+        <v>0.2242990654205607</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D85">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4618,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>56</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4626,25 +4548,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.2102803738317757</v>
+        <v>0.2239467849223947</v>
       </c>
       <c r="C86">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D86">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>169</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4652,25 +4574,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.2079207920792079</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="C87">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E87">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4678,13 +4600,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.2077922077922078</v>
+        <v>0.2</v>
       </c>
       <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
         <v>16</v>
-      </c>
-      <c r="D88">
-        <v>17</v>
       </c>
       <c r="E88">
         <v>0.06</v>
@@ -4696,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4704,25 +4626,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2063492063492063</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C89">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D89">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E89">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4730,13 +4652,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.203125</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C90">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D90">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4748,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>153</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4756,25 +4678,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2027027027027027</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="C91">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>59</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4782,13 +4704,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C92">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D92">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4800,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4808,25 +4730,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D93">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E93">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>60</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4834,25 +4756,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1974522292993631</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="C94">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D94">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>126</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4860,25 +4782,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1904761904761905</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C95">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4886,25 +4808,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.180327868852459</v>
+        <v>0.1736526946107785</v>
       </c>
       <c r="C96">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D96">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E96">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F96">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>200</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4912,25 +4834,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1755725190839695</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="C97">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D97">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E97">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F97">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>216</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4938,13 +4860,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1753246753246753</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="C98">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D98">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4956,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4964,25 +4886,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1684782608695652</v>
+        <v>0.1628571428571429</v>
       </c>
       <c r="C99">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D99">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E99">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F99">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>153</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4990,25 +4912,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1679389312977099</v>
+        <v>0.1597796143250689</v>
       </c>
       <c r="C100">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D100">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>109</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5016,25 +4938,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1666666666666667</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="C101">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D101">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E101">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5042,25 +4964,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1592356687898089</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="C102">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D102">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E102">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F102">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>132</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5068,25 +4990,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1538461538461539</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="C103">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D103">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E103">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="F103">
-        <v>0.9299999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>297</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5094,25 +5016,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1517857142857143</v>
+        <v>0.1513513513513514</v>
       </c>
       <c r="C104">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D104">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E104">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="F104">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>95</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5120,25 +5042,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1415094339622641</v>
+        <v>0.1490683229813665</v>
       </c>
       <c r="C105">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D105">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E105">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5146,25 +5068,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1408839779005525</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="C106">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D106">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E106">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>311</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5172,25 +5094,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1398963730569948</v>
+        <v>0.1375661375661376</v>
       </c>
       <c r="C107">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D107">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E107">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="F107">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5198,25 +5120,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1278026905829596</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="C108">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D108">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E108">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>389</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5224,25 +5146,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1270718232044199</v>
+        <v>0.1331828442437923</v>
       </c>
       <c r="C109">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D109">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E109">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="F109">
-        <v>0.8200000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>158</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5250,25 +5172,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.126984126984127</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C110">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D110">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E110">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>275</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5276,25 +5198,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1254480286738351</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="C111">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D111">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E111">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="F111">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>244</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5302,25 +5224,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1213872832369942</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="C112">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D112">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E112">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5328,25 +5250,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1167883211678832</v>
+        <v>0.1287625418060201</v>
       </c>
       <c r="C113">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D113">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>121</v>
+        <v>521</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5354,25 +5276,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1124260355029586</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C114">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D114">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E114">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="F114">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5380,25 +5302,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1119402985074627</v>
+        <v>0.1215469613259668</v>
       </c>
       <c r="C115">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D115">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E115">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="F115">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>119</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5406,13 +5328,13 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1081081081081081</v>
+        <v>0.12</v>
       </c>
       <c r="C116">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D116">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -5424,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5432,25 +5354,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.1005025125628141</v>
+        <v>0.12</v>
       </c>
       <c r="C117">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D117">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E117">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F117">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>537</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5458,25 +5380,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.09738717339667459</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="C118">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D118">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E118">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>380</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5484,25 +5406,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.09625668449197861</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C119">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D119">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E119">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="F119">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5510,25 +5432,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.09389671361502347</v>
+        <v>0.1119047619047619</v>
       </c>
       <c r="C120">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D120">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E120">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="F120">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>193</v>
+        <v>373</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5536,25 +5458,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.09316770186335403</v>
+        <v>0.1118210862619808</v>
       </c>
       <c r="C121">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D121">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>146</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5562,25 +5484,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.09273570324574962</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C122">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D122">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E122">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F122">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>587</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5588,25 +5510,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08808290155440414</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="C123">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D123">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E123">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>704</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5614,25 +5536,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.08670520231213873</v>
+        <v>0.1030444964871194</v>
       </c>
       <c r="C124">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D124">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E124">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="F124">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>158</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5640,25 +5562,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.0831353919239905</v>
+        <v>0.08864696734059098</v>
       </c>
       <c r="C125">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D125">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E125">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F125">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>386</v>
+        <v>586</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5666,25 +5588,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.07428571428571429</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="C126">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D126">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E126">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="F126">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>324</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5692,25 +5614,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.07017543859649122</v>
+        <v>0.08560311284046693</v>
       </c>
       <c r="C127">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D127">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E127">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="F127">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>212</v>
+        <v>705</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5718,25 +5640,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.06275303643724696</v>
+        <v>0.07758620689655173</v>
       </c>
       <c r="C128">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D128">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E128">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="F128">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>463</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5744,25 +5666,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.06015037593984962</v>
+        <v>0.06412825651302605</v>
       </c>
       <c r="C129">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D129">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E129">
-        <v>0.58</v>
+        <v>0.14</v>
       </c>
       <c r="F129">
-        <v>0.42</v>
+        <v>0.86</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>250</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5770,25 +5692,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0576036866359447</v>
+        <v>0.06378132118451026</v>
       </c>
       <c r="C130">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D130">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E130">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="F130">
-        <v>0.6599999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5796,25 +5718,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.04851752021563342</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C131">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D131">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E131">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="F131">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>353</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5822,25 +5744,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.04845814977973568</v>
+        <v>0.04194260485651214</v>
       </c>
       <c r="C132">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D132">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E132">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="F132">
-        <v>0.5900000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5848,25 +5770,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.04148148148148148</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="C133">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D133">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E133">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
       <c r="F133">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
